--- a/config/project/直流充电桩板级检验/demo配置表.xlsx
+++ b/config/project/直流充电桩板级检验/demo配置表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="145">
   <si>
     <t>组序号</t>
   </si>
@@ -1223,6 +1223,14 @@
   <si>
     <t>主从通讯</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIFLASH(sf)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIFLASH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1823,7 +1831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1869,17 +1877,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2236,16 +2262,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="14" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
@@ -2258,7 +2284,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2278,13 +2304,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D2">
@@ -2301,9 +2327,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3">
         <v>2</v>
       </c>
@@ -2318,9 +2344,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4">
         <v>3</v>
       </c>
@@ -2335,9 +2361,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5">
         <v>4</v>
       </c>
@@ -2352,9 +2378,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6">
         <v>5</v>
       </c>
@@ -2369,9 +2395,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7">
         <v>6</v>
       </c>
@@ -2386,9 +2412,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8">
         <v>7</v>
       </c>
@@ -2403,9 +2429,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
       <c r="D9">
         <v>8</v>
       </c>
@@ -2420,9 +2446,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10">
         <v>9</v>
       </c>
@@ -2443,13 +2469,13 @@
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2466,7 +2492,7 @@
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D12">
@@ -2483,54 +2509,62 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>4</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
+      <c r="A13" s="14"/>
+      <c r="B13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="19">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
@@ -2540,20 +2574,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>5</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
@@ -2563,14 +2591,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
@@ -2580,54 +2608,60 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>46</v>
+      <c r="A18" s="19">
+        <v>5</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
+      <c r="E18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2637,14 +2671,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2654,14 +2688,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2671,14 +2705,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2688,14 +2722,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2705,14 +2739,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2722,14 +2756,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2739,14 +2773,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18"/>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2756,14 +2790,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2773,14 +2807,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2790,14 +2824,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="18"/>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2807,14 +2841,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2824,14 +2858,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2841,14 +2875,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2858,54 +2892,54 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="18"/>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="18"/>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2915,14 +2949,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="18"/>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -2932,14 +2966,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="18"/>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2949,14 +2983,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="18"/>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2966,14 +3000,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="18"/>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -2983,14 +3017,14 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="18"/>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -3000,14 +3034,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="18"/>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -3017,14 +3051,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="18"/>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -3034,14 +3068,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="18"/>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -3051,14 +3085,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="18"/>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -3068,14 +3102,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -3085,14 +3119,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="18"/>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -3102,14 +3136,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="18"/>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -3119,14 +3153,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="18"/>
       <c r="D49">
         <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -3136,20 +3170,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="18"/>
       <c r="D50">
         <v>49</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>65</v>
+      <c r="E50" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -3159,14 +3187,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="18"/>
       <c r="D51">
         <v>50</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>66</v>
+      <c r="E51" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -3176,14 +3204,20 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="D52">
         <v>51</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -3193,14 +3227,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="18"/>
       <c r="D53">
         <v>52</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -3210,14 +3244,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="18"/>
       <c r="D54">
         <v>53</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
@@ -3227,14 +3261,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="18"/>
       <c r="D55">
         <v>54</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -3244,14 +3278,14 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="18"/>
       <c r="D56">
         <v>55</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -3261,14 +3295,14 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="18"/>
       <c r="D57">
         <v>56</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -3278,14 +3312,14 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="18"/>
       <c r="D58">
         <v>57</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -3295,14 +3329,14 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="18"/>
       <c r="D59">
         <v>58</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -3312,14 +3346,14 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="18"/>
       <c r="D60">
         <v>59</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -3329,14 +3363,14 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="18"/>
       <c r="D61">
         <v>60</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -3346,14 +3380,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="18"/>
       <c r="D62">
         <v>61</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -3363,14 +3397,14 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="18"/>
       <c r="D63">
         <v>62</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -3380,14 +3414,14 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="18"/>
       <c r="D64">
         <v>63</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
@@ -3397,14 +3431,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="18"/>
       <c r="D65">
         <v>64</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
@@ -3414,54 +3448,54 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="18"/>
       <c r="D66">
         <v>65</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="18"/>
       <c r="D67">
         <v>66</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="D68">
         <v>67</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3471,14 +3505,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="18"/>
       <c r="D69">
         <v>68</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3488,14 +3522,14 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="18"/>
       <c r="D70">
         <v>69</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3505,14 +3539,14 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="18"/>
       <c r="D71">
         <v>70</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3522,14 +3556,14 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="18"/>
       <c r="D72">
         <v>71</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -3539,14 +3573,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="18"/>
       <c r="D73">
         <v>72</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3556,14 +3590,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="18"/>
       <c r="D74">
         <v>73</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3573,14 +3607,14 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="18"/>
       <c r="D75">
         <v>74</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -3590,14 +3624,14 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="18"/>
       <c r="D76">
         <v>75</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -3607,14 +3641,14 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="18"/>
       <c r="D77">
         <v>76</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -3624,14 +3658,14 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="18"/>
       <c r="D78">
         <v>77</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3641,14 +3675,14 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="18"/>
       <c r="D79">
         <v>78</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -3658,14 +3692,14 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="18"/>
       <c r="D80">
         <v>79</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -3675,14 +3709,14 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="18"/>
       <c r="D81">
         <v>80</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -3692,20 +3726,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="18"/>
       <c r="D82">
         <v>81</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -3715,14 +3743,14 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="18"/>
       <c r="D83">
         <v>82</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -3732,14 +3760,20 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
+      <c r="A84" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="D84">
         <v>83</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -3749,14 +3783,14 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="18"/>
       <c r="D85">
         <v>84</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -3766,54 +3800,54 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="18"/>
       <c r="D86">
         <v>85</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F86" s="1">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="18"/>
       <c r="D87">
         <v>86</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F87" s="1">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
+      <c r="A88" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="D88">
         <v>87</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F88" s="1">
         <v>3.3</v>
@@ -3823,14 +3857,14 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="18"/>
       <c r="D89">
         <v>88</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F89" s="1">
         <v>3.3</v>
@@ -3840,54 +3874,54 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="18"/>
       <c r="D90">
         <v>89</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F90" s="1">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="G90" s="1">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="18"/>
       <c r="D91">
         <v>90</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F91" s="1">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="G91" s="1">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
+      <c r="A92" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="D92">
         <v>91</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1">
         <v>1.3</v>
@@ -3897,14 +3931,14 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="18"/>
       <c r="D93">
         <v>92</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F93" s="1">
         <v>1.3</v>
@@ -3914,14 +3948,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="18"/>
       <c r="D94">
         <v>93</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F94" s="1">
         <v>1.3</v>
@@ -3931,14 +3965,14 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="18"/>
       <c r="D95">
         <v>94</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1">
         <v>1.3</v>
@@ -3948,128 +3982,128 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="18"/>
       <c r="D96">
         <v>95</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G96" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="18"/>
       <c r="D97">
         <v>96</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G97" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>91</v>
+      <c r="A98" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="D98">
         <v>97</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F98" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G98" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="18"/>
       <c r="D99">
         <v>98</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F99" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G99" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
+      <c r="A100" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="D100">
         <v>99</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F100" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G100" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="18"/>
       <c r="D101">
         <v>100</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F101" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G101" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="18"/>
       <c r="D102">
         <v>101</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -4079,14 +4113,14 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="18"/>
       <c r="D103">
         <v>102</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -4096,106 +4130,94 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="18"/>
       <c r="D104">
         <v>103</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="18"/>
       <c r="D105">
         <v>104</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>108</v>
+      <c r="A106" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="D106">
         <v>105</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="18"/>
       <c r="D107">
         <v>106</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>107</v>
+      <c r="E107" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D108">
         <v>107</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>107</v>
@@ -4205,43 +4227,43 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>115</v>
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D109">
         <v>108</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>115</v>
+      <c r="E109" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D110">
         <v>109</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>107</v>
@@ -4251,37 +4273,43 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>121</v>
+      <c r="A111" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D111">
         <v>110</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
+      <c r="A112" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="D112">
         <v>111</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>107</v>
@@ -4291,20 +4319,20 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="B113" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D113">
         <v>112</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>107</v>
@@ -4314,14 +4342,14 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="18"/>
       <c r="D114">
         <v>113</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>107</v>
@@ -4331,20 +4359,20 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>128</v>
+      <c r="A115" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="D115">
         <v>114</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>107</v>
@@ -4354,20 +4382,14 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="A116" s="18"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="18"/>
       <c r="D116">
         <v>115</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>107</v>
@@ -4377,20 +4399,20 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="11">
-        <v>485</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C117" s="11">
-        <v>485</v>
+      <c r="A117" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D117">
         <v>116</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>107</v>
@@ -4400,20 +4422,20 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="12">
-        <v>485</v>
-      </c>
-      <c r="B118" s="12">
-        <v>485</v>
-      </c>
-      <c r="C118" s="12">
-        <v>485</v>
+      <c r="A118" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D118">
         <v>117</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>107</v>
@@ -4423,20 +4445,20 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>135</v>
+      <c r="A119" s="17">
+        <v>485</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="17">
+        <v>485</v>
       </c>
       <c r="D119">
         <v>118</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>107</v>
@@ -4446,43 +4468,43 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>137</v>
+      <c r="A120" s="18">
+        <v>485</v>
+      </c>
+      <c r="B120" s="19">
+        <v>485</v>
+      </c>
+      <c r="C120" s="18">
+        <v>485</v>
       </c>
       <c r="D120">
         <v>119</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>107</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D121">
         <v>120</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>107</v>
@@ -4493,42 +4515,42 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D122">
         <v>121</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>107</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>142</v>
+      <c r="A123" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="D123">
         <v>122</v>
       </c>
-      <c r="E123" s="18" t="s">
-        <v>142</v>
+      <c r="E123" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>107</v>
@@ -4537,56 +4559,102 @@
         <v>107</v>
       </c>
     </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D124">
+        <v>123</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125">
+        <v>124</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A52:A67"/>
+    <mergeCell ref="B52:B67"/>
+    <mergeCell ref="C52:C67"/>
+    <mergeCell ref="A68:A83"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="C68:C83"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="C34:C49"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="B50:B65"/>
-    <mergeCell ref="C50:C65"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="B66:B81"/>
-    <mergeCell ref="C66:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/直流充电桩板级检验/demo配置表.xlsx
+++ b/config/project/直流充电桩板级检验/demo配置表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="148">
   <si>
     <t>组序号</t>
   </si>
@@ -945,10 +945,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>看门狗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>N</t>
     </r>
@@ -973,10 +969,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>看门狗测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>升级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1231,6 +1223,23 @@
   <si>
     <t>SPIFLASH</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗出场设备</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级正确BOOT程序</t>
+  </si>
+  <si>
+    <t>升级正确应用程序</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,56 +1865,65 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2262,19 +2280,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="17" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
@@ -2284,7 +2302,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2304,19 +2322,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2327,13 +2345,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2344,13 +2362,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2361,13 +2379,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2378,13 +2396,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2395,13 +2413,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2412,13 +2430,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2429,13 +2447,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2446,13 +2464,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2469,13 +2487,13 @@
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2492,7 +2510,7 @@
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D12">
@@ -2509,61 +2527,61 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>118</v>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>144</v>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="23">
         <v>4</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2574,13 +2592,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2591,13 +2609,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2608,19 +2626,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="23">
         <v>5</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2631,13 +2649,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2648,19 +2666,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="1">
@@ -2671,13 +2689,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="1">
@@ -2688,13 +2706,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
       <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="1">
@@ -2705,13 +2723,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
       <c r="D23">
         <v>22</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="1">
@@ -2722,13 +2740,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24">
         <v>23</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="1">
@@ -2739,13 +2757,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="1">
@@ -2756,13 +2774,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
       <c r="D26">
         <v>25</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="1">
@@ -2773,13 +2791,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="1">
@@ -2790,13 +2808,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
       <c r="D28">
         <v>27</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F28" s="1">
@@ -2807,13 +2825,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
       <c r="D29">
         <v>28</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="1">
@@ -2824,13 +2842,13 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
       <c r="D30">
         <v>29</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="1">
@@ -2841,13 +2859,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="1">
@@ -2858,13 +2876,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
       <c r="D32">
         <v>31</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F32" s="1">
@@ -2875,13 +2893,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25"/>
       <c r="D33">
         <v>32</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="17" t="s">
         <v>60</v>
       </c>
       <c r="F33" s="1">
@@ -2892,13 +2910,13 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
       <c r="D34">
         <v>33</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="17" t="s">
         <v>61</v>
       </c>
       <c r="F34" s="1">
@@ -2909,13 +2927,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
       <c r="D35">
         <v>34</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F35" s="1">
@@ -2926,19 +2944,19 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="1">
@@ -2949,13 +2967,13 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="25"/>
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="1">
@@ -2966,13 +2984,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="25"/>
       <c r="D38">
         <v>37</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="1">
@@ -2983,13 +3001,13 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="25"/>
       <c r="D39">
         <v>38</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="1">
@@ -3000,13 +3018,13 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="25"/>
       <c r="D40">
         <v>39</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="1">
@@ -3017,13 +3035,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="25"/>
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="1">
@@ -3034,13 +3052,13 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="25"/>
       <c r="D42">
         <v>41</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F42" s="1">
@@ -3051,13 +3069,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="25"/>
       <c r="D43">
         <v>42</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F43" s="1">
@@ -3068,13 +3086,13 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="25"/>
       <c r="D44">
         <v>43</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="1">
@@ -3085,13 +3103,13 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="25"/>
       <c r="D45">
         <v>44</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="1">
@@ -3102,13 +3120,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="25"/>
       <c r="D46">
         <v>45</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F46" s="1">
@@ -3119,13 +3137,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="25"/>
       <c r="D47">
         <v>46</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F47" s="1">
@@ -3136,13 +3154,13 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="25"/>
       <c r="D48">
         <v>47</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="1">
@@ -3153,13 +3171,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="25"/>
       <c r="D49">
         <v>48</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="17" t="s">
         <v>60</v>
       </c>
       <c r="F49" s="1">
@@ -3170,13 +3188,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="25"/>
       <c r="D50">
         <v>49</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="17" t="s">
         <v>61</v>
       </c>
       <c r="F50" s="1">
@@ -3187,13 +3205,13 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
       <c r="D51">
         <v>50</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F51" s="1">
@@ -3204,19 +3222,19 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D52">
         <v>51</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="16" t="s">
         <v>65</v>
       </c>
       <c r="F52" s="1">
@@ -3227,13 +3245,13 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="25"/>
       <c r="D53">
         <v>52</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="1">
@@ -3244,13 +3262,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="25"/>
       <c r="D54">
         <v>53</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F54" s="1">
@@ -3261,13 +3279,13 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="25"/>
       <c r="D55">
         <v>54</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F55" s="1">
@@ -3278,13 +3296,13 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="25"/>
       <c r="D56">
         <v>55</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="1">
@@ -3295,13 +3313,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="25"/>
       <c r="D57">
         <v>56</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F57" s="1">
@@ -3312,13 +3330,13 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="25"/>
       <c r="D58">
         <v>57</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F58" s="1">
@@ -3329,13 +3347,13 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="25"/>
       <c r="D59">
         <v>58</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F59" s="1">
@@ -3346,13 +3364,13 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="25"/>
       <c r="D60">
         <v>59</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F60" s="1">
@@ -3363,13 +3381,13 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="25"/>
       <c r="D61">
         <v>60</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F61" s="1">
@@ -3380,13 +3398,13 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="25"/>
       <c r="D62">
         <v>61</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F62" s="1">
@@ -3397,13 +3415,13 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="25"/>
       <c r="D63">
         <v>62</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F63" s="1">
@@ -3414,13 +3432,13 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="25"/>
       <c r="D64">
         <v>63</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F64" s="1">
@@ -3431,13 +3449,13 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="25"/>
       <c r="D65">
         <v>64</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="16" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="1">
@@ -3448,13 +3466,13 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="25"/>
       <c r="D66">
         <v>65</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F66" s="1">
@@ -3465,13 +3483,13 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="25"/>
       <c r="D67">
         <v>66</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F67" s="1">
@@ -3482,19 +3500,19 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D68">
         <v>67</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="16" t="s">
         <v>65</v>
       </c>
       <c r="F68" s="1">
@@ -3505,13 +3523,13 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="25"/>
       <c r="D69">
         <v>68</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F69" s="1">
@@ -3522,13 +3540,13 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="25"/>
       <c r="D70">
         <v>69</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F70" s="1">
@@ -3539,13 +3557,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="25"/>
       <c r="D71">
         <v>70</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F71" s="1">
@@ -3556,13 +3574,13 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="25"/>
       <c r="D72">
         <v>71</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F72" s="1">
@@ -3573,13 +3591,13 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="25"/>
       <c r="D73">
         <v>72</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F73" s="1">
@@ -3590,13 +3608,13 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="25"/>
       <c r="D74">
         <v>73</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F74" s="1">
@@ -3607,13 +3625,13 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="25"/>
       <c r="D75">
         <v>74</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F75" s="1">
@@ -3624,13 +3642,13 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="25"/>
       <c r="D76">
         <v>75</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F76" s="1">
@@ -3641,13 +3659,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="25"/>
       <c r="D77">
         <v>76</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="1">
@@ -3658,13 +3676,13 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="25"/>
       <c r="D78">
         <v>77</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F78" s="1">
@@ -3675,13 +3693,13 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="25"/>
       <c r="D79">
         <v>78</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F79" s="1">
@@ -3692,13 +3710,13 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="25"/>
       <c r="D80">
         <v>79</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F80" s="1">
@@ -3709,13 +3727,13 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="18"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="25"/>
       <c r="D81">
         <v>80</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="16" t="s">
         <v>78</v>
       </c>
       <c r="F81" s="1">
@@ -3726,13 +3744,13 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="18"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="25"/>
       <c r="D82">
         <v>81</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F82" s="1">
@@ -3743,13 +3761,13 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="18"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="25"/>
       <c r="D83">
         <v>82</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F83" s="1">
@@ -3766,13 +3784,13 @@
       <c r="B84" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="24" t="s">
         <v>84</v>
       </c>
       <c r="D84">
         <v>83</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F84" s="1">
@@ -3783,13 +3801,13 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="18"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="25"/>
       <c r="D85">
         <v>84</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F85" s="1">
@@ -3800,13 +3818,13 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="18"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="25"/>
       <c r="D86">
         <v>85</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F86" s="1">
@@ -3817,13 +3835,13 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="18"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="25"/>
       <c r="D87">
         <v>86</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="16" t="s">
         <v>90</v>
       </c>
       <c r="F87" s="1">
@@ -3840,13 +3858,13 @@
       <c r="B88" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="24" t="s">
         <v>84</v>
       </c>
       <c r="D88">
         <v>87</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F88" s="1">
@@ -3857,13 +3875,13 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="18"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="25"/>
       <c r="D89">
         <v>88</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F89" s="1">
@@ -3874,13 +3892,13 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="18"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="25"/>
       <c r="D90">
         <v>89</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F90" s="1">
@@ -3891,13 +3909,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="18"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="25"/>
       <c r="D91">
         <v>90</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="16" t="s">
         <v>90</v>
       </c>
       <c r="F91" s="1">
@@ -3908,19 +3926,19 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D92">
         <v>91</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="16" t="s">
         <v>93</v>
       </c>
       <c r="F92" s="1">
@@ -3931,13 +3949,13 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="18"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="25"/>
       <c r="D93">
         <v>92</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F93" s="1">
@@ -3948,13 +3966,13 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="18"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="25"/>
       <c r="D94">
         <v>93</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="16" t="s">
         <v>95</v>
       </c>
       <c r="F94" s="1">
@@ -3965,13 +3983,13 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="18"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="25"/>
       <c r="D95">
         <v>94</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F95" s="1">
@@ -3982,13 +4000,13 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="18"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="25"/>
       <c r="D96">
         <v>95</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F96" s="1">
@@ -3999,13 +4017,13 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="18"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="25"/>
       <c r="D97">
         <v>96</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F97" s="1">
@@ -4016,19 +4034,19 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D98">
         <v>97</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F98" s="1">
@@ -4039,13 +4057,13 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="18"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="25"/>
       <c r="D99">
         <v>98</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F99" s="1">
@@ -4056,19 +4074,19 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D100">
         <v>99</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="16" t="s">
         <v>93</v>
       </c>
       <c r="F100" s="1">
@@ -4079,13 +4097,13 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="18"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="25"/>
       <c r="D101">
         <v>100</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F101" s="1">
@@ -4096,13 +4114,13 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="18"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="25"/>
       <c r="D102">
         <v>101</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="16" t="s">
         <v>95</v>
       </c>
       <c r="F102" s="1">
@@ -4113,13 +4131,13 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="18"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="25"/>
       <c r="D103">
         <v>102</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F103" s="1">
@@ -4130,13 +4148,13 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="18"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="25"/>
       <c r="D104">
         <v>103</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F104" s="1">
@@ -4147,13 +4165,13 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="18"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="25"/>
       <c r="D105">
         <v>104</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F105" s="1">
@@ -4164,19 +4182,19 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D106">
         <v>105</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F106" s="1">
@@ -4187,13 +4205,13 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="18"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="25"/>
       <c r="D107">
         <v>106</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F107" s="1">
@@ -4204,439 +4222,507 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>108</v>
+      <c r="A108" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D108">
         <v>107</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F108" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>107</v>
+      <c r="G108" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D109">
         <v>108</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F109" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>112</v>
+      <c r="B110" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D110">
         <v>109</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F110" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>115</v>
+      <c r="B111" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D111">
         <v>110</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G111" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F111" s="10" t="s">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="D112">
         <v>111</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F112" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>121</v>
+      <c r="C113" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="D113">
         <v>112</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>107</v>
+      <c r="E113" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="18"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="25"/>
       <c r="D114">
         <v>113</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>107</v>
+      <c r="E114" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
-        <v>121</v>
+      <c r="A115" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="D115">
         <v>114</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>107</v>
+      <c r="E115" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="18"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="25"/>
       <c r="D116">
         <v>115</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F116" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>128</v>
+      <c r="B117" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D117">
         <v>116</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>107</v>
+      <c r="E117" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>128</v>
+      <c r="C118" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D118">
         <v>117</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E118" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="24">
+        <v>485</v>
+      </c>
+      <c r="B119" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F118" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
-        <v>485</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="17">
+      <c r="C119" s="24">
         <v>485</v>
       </c>
       <c r="D119">
         <v>118</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>107</v>
+      <c r="E119" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="18">
+      <c r="A120" s="25">
         <v>485</v>
       </c>
-      <c r="B120" s="19">
+      <c r="B120" s="23">
         <v>485</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C120" s="25">
         <v>485</v>
       </c>
       <c r="D120">
         <v>119</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="D121">
         <v>120</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>107</v>
+      <c r="E121" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>137</v>
+      <c r="A122" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D122">
         <v>121</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="D123">
         <v>122</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>107</v>
+      <c r="E123" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>141</v>
+      <c r="A124" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D124">
         <v>123</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>107</v>
+      <c r="E124" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>142</v>
+      <c r="A125" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="D125">
         <v>124</v>
       </c>
-      <c r="E125" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F125" s="10" t="s">
+      <c r="E125" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="B126" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="16" t="s">
         <v>107</v>
       </c>
+      <c r="D126">
+        <v>125</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127">
+        <v>126</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128">
+        <v>127</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129">
+        <v>128</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A52:A67"/>
-    <mergeCell ref="B52:B67"/>
-    <mergeCell ref="C52:C67"/>
-    <mergeCell ref="A68:A83"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="C68:C83"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="A36:A51"/>
+  <mergeCells count="51">
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -4646,15 +4732,36 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="A52:A67"/>
+    <mergeCell ref="B52:B67"/>
+    <mergeCell ref="C52:C67"/>
+    <mergeCell ref="A68:A83"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="C68:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
